--- a/Libraries/Health/Generated/MDMI Generic Statment Model Table.xlsx
+++ b/Libraries/Health/Generated/MDMI Generic Statment Model Table.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="259">
   <si>
     <t/>
   </si>
   <si>
+    <t>Element ID</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -32,47 +35,80 @@
     <t>Documentation</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666806_995220_5133</t>
+  </si>
+  <si>
     <t>MDMI Generic Statement Model</t>
+  </si>
+  <si>
+    <t>Concept
+organization</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666934_981629_5367</t>
+  </si>
+  <si>
+    <t>Collection
+Ordered Collection</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666899_217198_5297</t>
+  </si>
+  <si>
+    <t>Concept
+specification family</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666784_613629_5100</t>
+  </si>
+  <si>
+    <t>Concept
+bibliographic citation</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666912_105062_5324</t>
+  </si>
+  <si>
+    <t>Concept
+specification version</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666949_92682_5394</t>
+  </si>
+  <si>
+    <t>Concept
+specification</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666879_155425_5261</t>
+  </si>
+  <si>
+    <t>Concept
+content type</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666960_789044_5413</t>
+  </si>
+  <si>
+    <t>Concept
+module</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666821_66036_5158</t>
   </si>
   <si>
     <t>Concept
 MIME MediaType</t>
   </si>
   <si>
-    <t>Concept
-content type</t>
-  </si>
-  <si>
-    <t>Collection
-Ordered Collection</t>
+    <t>_19_0_3_62501eb_1575932666885_586398_5270</t>
   </si>
   <si>
     <t>Concept
 issue resolution</t>
   </si>
   <si>
-    <t>Concept
-bibliographic citation</t>
-  </si>
-  <si>
-    <t>Concept
-specification</t>
-  </si>
-  <si>
-    <t>Concept
-module</t>
-  </si>
-  <si>
-    <t>Concept
-organization</t>
-  </si>
-  <si>
-    <t>Concept
-specification version</t>
-  </si>
-  <si>
-    <t>Concept
-specification family</t>
+    <t>_19_0_3_62501eb_1576709787037_333102_6731</t>
   </si>
   <si>
     <t>intervention request</t>
@@ -81,48 +117,132 @@
     <t>clinical activity</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576848597223_683858_6644</t>
+  </si>
+  <si>
     <t>activity</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667394_46488_6290</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581108793531_214676_15453</t>
+  </si>
+  <si>
     <t>device</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576202203856_485378_12681</t>
+  </si>
+  <si>
     <t>device activity method</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581443199889_651145_6901</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581438576109_569498_6721</t>
+  </si>
+  <si>
     <t>intervention activity</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576709787037_143956_6732</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581438576110_725081_6722</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576086581611_510608_11632</t>
+  </si>
+  <si>
     <t>observation</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576096197023_207180_11848</t>
+  </si>
+  <si>
     <t>observation request</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576096197024_812717_11849</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932667333_241052_6153</t>
+  </si>
+  <si>
     <t>occurance</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1580941564397_966544_6831</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576083879288_530519_11487</t>
+  </si>
+  <si>
     <t>opinion</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581108789939_285255_15420</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581108785363_116033_15392</t>
+  </si>
+  <si>
     <t>person</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>_19_0_3_62501eb_1581443199889_641024_6902</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576172922511_230827_12376</t>
   </si>
   <si>
     <t>request event</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581709484653_539043_7287</t>
+  </si>
+  <si>
     <t>situation</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581709423164_954619_7232</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576095748113_468474_11819</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932667429_877854_6370</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581108873347_968274_15581</t>
+  </si>
+  <si>
     <t>statement</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667092_27802_5656</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581108870250_67384_15556</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932667192_867628_5864</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575938134460_403191_11049</t>
+  </si>
+  <si>
     <t>occurs on</t>
   </si>
   <si>
@@ -132,15 +252,42 @@
     <t>point in time</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581107253713_613598_7545</t>
+  </si>
+  <si>
     <t>statement has mode</t>
   </si>
   <si>
     <t>statement mode</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581709423163_599950_7231</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>Thing</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581709484653_245923_7286</t>
+  </si>
+  <si>
+    <t>about participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576848597223_354518_6643</t>
+  </si>
+  <si>
     <t>forms opinion</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667192_372439_5863</t>
+  </si>
+  <si>
     <t>has author</t>
   </si>
   <si>
@@ -150,15 +297,24 @@
     <t>a dataelementconcept property to be associated with a mdmibusinesselement</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667300_648086_6084</t>
+  </si>
+  <si>
     <t>has author organization legal name</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667241_955582_5957</t>
+  </si>
+  <si>
     <t>has author person legal name</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576112106614_661844_12252</t>
+  </si>
+  <si>
     <t>has classification</t>
   </si>
   <si>
@@ -168,33 +324,48 @@
     <t>classification is a property of any entity representing an extended type or category of the entity. Also known as "focus" in ANF.</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576083391481_968796_11427</t>
+  </si>
+  <si>
     <t>has confidence</t>
   </si>
   <si>
     <t>reference</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576202203856_603188_12680</t>
+  </si>
+  <si>
     <t>has device</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667175_970155_5834</t>
+  </si>
+  <si>
     <t>has device name</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576101763461_228873_11967</t>
+  </si>
+  <si>
     <t>has end date time</t>
   </si>
   <si>
     <t>date and time at which a temporal entity started or will end</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666986_460361_5442</t>
+  </si>
+  <si>
     <t>has id</t>
   </si>
   <si>
-    <t>entity</t>
-  </si>
-  <si>
     <t>anyURI</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667015_135638_5492</t>
+  </si>
+  <si>
     <t>has legal name</t>
   </si>
   <si>
@@ -204,15 +375,24 @@
     <t>a property to be used in a dataelementconcept property</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667394_631964_6289</t>
+  </si>
+  <si>
     <t>has method</t>
   </si>
   <si>
     <t>activity method</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667382_843344_6263</t>
+  </si>
+  <si>
     <t>has name</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667362_181560_6218</t>
+  </si>
+  <si>
     <t>has numeric value</t>
   </si>
   <si>
@@ -222,13 +402,19 @@
     <t>a property for measure</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667254_160391_5987</t>
+  </si>
+  <si>
     <t>has organization legal name</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667428_714208_6369</t>
+  </si>
+  <si>
     <t>has participant</t>
   </si>
   <si>
-    <t>participant</t>
+    <t>_19_0_3_62501eb_1575932667333_467556_6152</t>
   </si>
   <si>
     <t>has performer</t>
@@ -237,18 +423,30 @@
     <t>performer</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667078_786920_5623</t>
+  </si>
+  <si>
     <t>has person legal name</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1580941864417_747915_6879</t>
+  </si>
+  <si>
     <t>has purpose</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576101750592_112250_11963</t>
+  </si>
+  <si>
     <t>has start date time</t>
   </si>
   <si>
     <t>date and time at which a temporal entity started or will start</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667367_837624_6228</t>
+  </si>
+  <si>
     <t>has status</t>
   </si>
   <si>
@@ -258,28 +456,43 @@
     <t>the condition of the situation at the present</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576095748112_812917_11818</t>
+  </si>
+  <si>
     <t>impacts</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576083879287_407590_11486</t>
+  </si>
+  <si>
     <t>is opinion about</t>
   </si>
   <si>
     <t>a situation that an opinion references</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932667092_434899_5655</t>
+  </si>
+  <si>
     <t>is statement about</t>
   </si>
   <si>
     <t>a situation that is asserted by a statement</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576170937470_220512_12296</t>
+  </si>
+  <si>
     <t>measured in unit</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576086581611_790338_11631</t>
+  </si>
+  <si>
     <t>observes</t>
   </si>
   <si>
-    <t>quality of</t>
+    <t>_19_0_3_62501eb_1581462600542_147084_7120</t>
   </si>
   <si>
     <t>quality value</t>
@@ -288,6 +501,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581101574783_378464_7001</t>
+  </si>
+  <si>
     <t>repetition count</t>
   </si>
   <si>
@@ -297,6 +513,9 @@
     <t>number</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581101418443_883251_6985</t>
+  </si>
+  <si>
     <t>repetition duration</t>
   </si>
   <si>
@@ -306,101 +525,212 @@
     <t>how long should every action take</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581101328930_67789_6977</t>
+  </si>
+  <si>
     <t>repetition frequency</t>
   </si>
   <si>
     <t>How often they should occur</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581101386566_964060_6981</t>
+  </si>
+  <si>
     <t>repetition separation</t>
   </si>
   <si>
     <t>how long between action</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576172922511_184769_12375</t>
+  </si>
+  <si>
     <t>requests</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1580941564397_522285_6830</t>
+  </si>
+  <si>
     <t>results in</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666830_569452_5171</t>
+  </si>
+  <si>
     <t>An activity is an occurrence performed by one or more actors intended to meet a need. A.K.A. a process.</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666793_752841_5109</t>
+  </si>
+  <si>
     <t>a technique or device used or applied in a temporary state in which the patient was actively placed during performance of the action.</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666749_640357_5048</t>
+  </si>
+  <si>
     <t>actor</t>
   </si>
   <si>
     <t>a role an entity can take</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576849864957_287950_6731</t>
+  </si>
+  <si>
     <t>role of actor</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1580940262123_801706_6663</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1580940401534_80760_6696</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666757_882646_5060</t>
+  </si>
+  <si>
     <t>a machine capable of acting within a situation</t>
   </si>
   <si>
-    <t>Thing</t>
+    <t>_19_0_3_62501eb_1576202174195_656829_12643</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581101175327_116348_6884</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666833_337404_5177</t>
   </si>
   <si>
     <t>a thing with distinct and independent existence</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576095716683_737733_11787</t>
+  </si>
+  <si>
     <t>event</t>
   </si>
   <si>
     <t>an event is an occurrence that is conceived of happening in an instant, not over a time period.</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666897_152140_5291</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
     <t>data that represents pictoral or graphic information</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581438537725_61074_6681</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576709747934_437778_6674</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576170667237_815450_12266</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576084508438_340072_11517</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581463933182_334177_7210</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666772_864372_5082</t>
+  </si>
+  <si>
     <t>a clinical statement having a representation of a finding or intervention result.</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666737_504492_5032</t>
+  </si>
+  <si>
     <t>a request for an observation that will be carried out in the future</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575935168544_195001_10522</t>
+  </si>
+  <si>
     <t>an occurrence represents one or more entities and their relationships changing over time (an activity) or changing at a specific time (an event) [DOLCE] Perdurant [BFO] Event: perdurant that is related to exactly two states (its pre-state and its post-state). An event is related to the states before and after it has happened. [NIEM] ActivityType</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576083367880_541631_11403</t>
+  </si>
+  <si>
     <t>state of affairs</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666929_866372_5357</t>
+  </si>
+  <si>
     <t>a formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action. Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576850536524_218970_6810</t>
   </si>
   <si>
     <t>role of actor
 responsible actor</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576850580916_621317_6852</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666943_147059_5382</t>
+  </si>
+  <si>
     <t>An individual human being. [FIBO] Person [NIEM] PersonType [DOLCE] (Subtype of) Agentive Physical Object</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666849_491941_5207</t>
+  </si>
+  <si>
     <t>physical location</t>
   </si>
   <si>
     <t>a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1580940455797_393934_6729</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581442611967_928760_6856</t>
+  </si>
+  <si>
     <t>a quality is a state of affairs representing a characteristic of an entity at a point in time or over a range of time. Examples include the temperature or height of a person at a particular time.</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1581108481818_433571_15249</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1581101236143_628242_6917</t>
+  </si>
+  <si>
     <t>a situation that repeats. Repetitive is a "mixin" class, any situation may be repetitive unless otherwise restricted</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575935387412_105451_10553</t>
+  </si>
+  <si>
     <t>a request event is an event that requests the initiation of an activity</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575934072041_722247_10489</t>
+  </si>
+  <si>
     <t>a person or organization capable of participating in activities</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576850489061_38912_6785</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576028809689_551010_11362</t>
   </si>
   <si>
     <t>temporal
@@ -410,16 +740,31 @@
     <t>A situation is an identifiable entity composed of an arrangement of entities and the relations between them over a time interval. A situation is a real or imagined region of space-time that bounds the range of perception, action, interaction, and communication of one or more agents. [Devlin] [SBVR] "State of affairs" [SOWA1999] Nexus</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576849320133_762448_6658</t>
+  </si>
+  <si>
     <t>software agent</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576086516037_803558_11593</t>
+  </si>
+  <si>
     <t>a state of affairs is a static condition or "state" consisting of a set of entities, properties and the relationships between them. [UML] State</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666795_903202_5115</t>
+  </si>
+  <si>
     <t>a recording of a fact or situation was observed to exist or will happen</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666836_576930_5183</t>
+  </si>
+  <si>
     <t>superclass of different types of status associated with and contained in a statement</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1576850740293_252071_6897</t>
   </si>
   <si>
     <t>subject</t>
@@ -429,19 +774,34 @@
 participant</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666888_692035_5273</t>
+  </si>
+  <si>
     <t>substance</t>
   </si>
   <si>
     <t>A homogeneous material with a definite composition</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1576101736124_819385_11939</t>
+  </si>
+  <si>
     <t>something that can be observed as existing over time such that statements may be made about it</t>
   </si>
   <si>
+    <t>_19_0_3_62501eb_1575932666894_310076_5285</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
     <t>unstructured data presented in written form</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575932666741_328464_5038</t>
+  </si>
+  <si>
+    <t>_19_0_3_62501eb_1575933984075_329352_10447</t>
   </si>
 </sst>
 </file>
@@ -511,197 +871,233 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -710,15 +1106,18 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -727,15 +1126,18 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -744,15 +1146,18 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -761,49 +1166,58 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -812,15 +1226,18 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
@@ -829,49 +1246,58 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
@@ -880,15 +1306,18 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
@@ -897,15 +1326,18 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
@@ -914,15 +1346,18 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -931,15 +1366,18 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -948,15 +1386,18 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -965,15 +1406,18 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
@@ -982,15 +1426,18 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -999,15 +1446,18 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -1016,15 +1466,18 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
@@ -1033,15 +1486,18 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
@@ -1050,15 +1506,18 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
@@ -1067,15 +1526,18 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
@@ -1084,1369 +1546,1692 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>59</v>
+        <v>102</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>59</v>
+        <v>93</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>41</v>
+        <v>112</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>41</v>
+        <v>119</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>97</v>
+        <v>158</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>100</v>
+        <v>165</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>101</v>
+        <v>165</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>108</v>
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>113</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>114</v>
+        <v>0</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>115</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>117</v>
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>119</v>
+        <v>0</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>121</v>
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>125</v>
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>127</v>
+        <v>0</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>130</v>
+        <v>0</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>131</v>
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>135</v>
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>0</v>
       </c>
     </row>
